--- a/level-1/codeforces-phase-1-3/codeforces-phase-1-3.xlsx
+++ b/level-1/codeforces-phase-1-3/codeforces-phase-1-3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB23984-1980-4325-9CF5-FD53643FB124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE045445-A3E1-4735-BD4E-0B72BA453E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,117 +46,6 @@
     <t>C++</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/224/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/675/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/714/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/370/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/478/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/190/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/651/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/225/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/270/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/682/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/253/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/287/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/505/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/525/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/548/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/312/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/608/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/719/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/166/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/237/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/252/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/257/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/300/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/349/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/357/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/371/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/433/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/456/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/471/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/495/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/508/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/557/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/558/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/570/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/596/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/602/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/767/A</t>
-  </si>
-  <si>
     <t>Accepted solution link</t>
   </si>
   <si>
@@ -178,30 +67,12 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/90/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/869/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/68/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/955/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/742/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/535/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/979/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/805/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/991/A</t>
   </si>
   <si>
@@ -211,72 +82,15 @@
     <t>https://codeforces.com/problemset/problem/122/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/336/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/355/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/667/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/799/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/483/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/583/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/499/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/864/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/777/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/74/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/69/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/17/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/13/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/3/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/114/A</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/890/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/35/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/29/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/285/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/289/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/527/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/534/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/861/A</t>
   </si>
   <si>
@@ -286,45 +100,6 @@
     <t>https://codeforces.com/problemset/problem/967/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/242/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/699/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/462/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/909/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/887/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/816/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/798/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/41/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/75/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/58/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/56/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/43/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/5/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/106/A</t>
   </si>
   <si>
@@ -334,82 +109,307 @@
     <t>https://codeforces.com/problemset/problem/131/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/365/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/382/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/488/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/544/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/186/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/7/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/53/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/801/A</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/877/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/165/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/352/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/359/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/368/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/385/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/389/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/435/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/507/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/560/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/862/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/849/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/779/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/37/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/998/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/218/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/296/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/789/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/90/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/224/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/68/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/742/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/535/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/979/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/805/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/336/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/355/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/667/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/675/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/714/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/370/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/478/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/190/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/483/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/651/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/557/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/583/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/499/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/608/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/237/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/864/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/777/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/74/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/69/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/17/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/13/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/3/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/35/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/29/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/285/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/289/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/527/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/534/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/225/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/270/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/682/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/242/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/699/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/462/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/909/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/887/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/816/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/798/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/41/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/75/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/58/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/56/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/43/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/5/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/365/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/382/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/488/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/544/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/186/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/253/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/287/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/505/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/525/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/548/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/312/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/7/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/53/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/165/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/352/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/359/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/368/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/385/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/389/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/435/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/507/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/560/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/357/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/371/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/862/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/849/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/779/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/37/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/218/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/296/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/719/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/166/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/252/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/257/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/300/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/349/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/433/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/456/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/471/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/495/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/508/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/558/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/570/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/596/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/602/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/767/A</t>
   </si>
 </sst>
 </file>
@@ -650,21 +650,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1272,28 +1258,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1390,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -1415,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -1440,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N6" s="11"/>
     </row>
@@ -1465,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -1490,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -1515,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N9" s="11"/>
     </row>
@@ -1540,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -1565,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N11" s="11"/>
     </row>
@@ -1590,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -1615,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N13" s="11"/>
     </row>
@@ -1640,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N14" s="13"/>
     </row>
@@ -1665,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N15" s="11"/>
     </row>
@@ -1690,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N16" s="13"/>
     </row>
@@ -1715,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N17" s="13"/>
     </row>
@@ -1740,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N18" s="13"/>
     </row>
@@ -1765,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -1790,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -1815,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N21" s="11"/>
     </row>
@@ -1840,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N22" s="11"/>
     </row>
@@ -1865,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N23" s="13"/>
     </row>
@@ -1890,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="N24" s="13"/>
     </row>
@@ -1915,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="N25" s="13"/>
     </row>
@@ -1940,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N26" s="13"/>
     </row>
@@ -1965,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -1990,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="N28" s="13"/>
     </row>
@@ -2015,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="N29" s="13"/>
     </row>
@@ -2040,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N30" s="11"/>
     </row>
@@ -2065,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N31" s="13"/>
     </row>
@@ -2090,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -2115,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="N33" s="13"/>
     </row>
@@ -2140,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="N34" s="13"/>
     </row>
@@ -2165,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N35" s="13"/>
     </row>
@@ -2190,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N36" s="13"/>
     </row>
@@ -2215,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N37" s="13"/>
     </row>
@@ -2240,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N38" s="13"/>
     </row>
@@ -2265,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="N39" s="13"/>
     </row>
@@ -2290,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N40" s="13"/>
     </row>
@@ -2315,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="N41" s="13"/>
     </row>
@@ -2340,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N42" s="13"/>
     </row>
@@ -2365,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="N43" s="13"/>
     </row>
@@ -2390,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N44" s="13"/>
     </row>
@@ -2415,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="N45" s="13"/>
     </row>
@@ -2440,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2465,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N47" s="13"/>
     </row>
@@ -2490,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N48" s="13"/>
     </row>
@@ -2515,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N49" s="13"/>
     </row>
@@ -2540,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="N50" s="13"/>
     </row>
@@ -2565,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="N51" s="13"/>
     </row>
@@ -2590,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="N52" s="13"/>
     </row>
@@ -2615,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="N53" s="13"/>
     </row>
@@ -2640,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="N54" s="13"/>
     </row>
@@ -2665,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="N55" s="13"/>
     </row>
@@ -2690,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="N56" s="13"/>
     </row>
@@ -2715,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="N57" s="13"/>
     </row>
@@ -2740,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="N58" s="13"/>
     </row>
@@ -2765,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="N59" s="13"/>
     </row>
@@ -2790,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="N60" s="11"/>
     </row>
@@ -2815,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="N61" s="13"/>
     </row>
@@ -2840,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N62" s="13"/>
     </row>
@@ -2865,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N63" s="13"/>
     </row>
@@ -2890,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N64" s="13"/>
     </row>
@@ -2915,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N65" s="13"/>
     </row>
@@ -2940,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="N66" s="11"/>
     </row>
@@ -2965,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="N67" s="13"/>
     </row>
@@ -2990,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="N68" s="13"/>
     </row>
@@ -3015,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N69" s="11"/>
     </row>
@@ -3040,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N70" s="13"/>
     </row>
@@ -3065,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="N71" s="13"/>
     </row>
@@ -3090,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="N72" s="13"/>
     </row>
@@ -3115,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N73" s="11"/>
     </row>
@@ -3140,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N74" s="11"/>
     </row>
@@ -3165,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="N75" s="13"/>
     </row>
@@ -3190,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="N76" s="13"/>
     </row>
@@ -3215,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="N77" s="13"/>
     </row>
@@ -3240,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="N78" s="11"/>
     </row>
@@ -3265,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="N79" s="11"/>
     </row>
@@ -3290,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="N80" s="13"/>
     </row>
@@ -3315,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N81" s="13"/>
     </row>
@@ -3340,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="N82" s="13"/>
     </row>
@@ -3365,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="N83" s="13"/>
     </row>
@@ -3390,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N84" s="11"/>
     </row>
@@ -3415,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="N85" s="13"/>
     </row>
@@ -3440,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="N86" s="13"/>
     </row>
@@ -3465,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N87" s="13"/>
     </row>
@@ -3490,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N88" s="13"/>
     </row>
@@ -3515,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="N89" s="13"/>
     </row>
@@ -3540,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="N90" s="13"/>
     </row>
@@ -3565,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="N91" s="13"/>
     </row>
@@ -3590,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N92" s="13"/>
     </row>
@@ -3615,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N93" s="13"/>
     </row>
@@ -3640,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="N94" s="13"/>
     </row>
@@ -3665,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N95" s="13"/>
     </row>
@@ -3690,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="N96" s="13"/>
     </row>
@@ -3715,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N97" s="13"/>
     </row>
@@ -3740,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N98" s="13"/>
     </row>
@@ -3765,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="N99" s="13"/>
     </row>
@@ -3790,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N100" s="13"/>
     </row>
@@ -3815,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N101" s="13"/>
     </row>
@@ -3840,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="N102" s="13"/>
     </row>
@@ -3865,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="N103" s="13"/>
     </row>
@@ -3890,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="N104" s="13"/>
     </row>
@@ -3915,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="N105" s="13"/>
     </row>
@@ -3936,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3956,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3976,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3996,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4016,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4036,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4056,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4076,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4096,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4116,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4136,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4156,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4176,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -4668,167 +4654,167 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="M32:M80 A43:A81 A4:A15">
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N14 M16:N19">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:N15">
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N20">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N20">
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A84 A119:A1048576">
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M31">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M31">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81:M82">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81:M82">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A89">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A97">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:M89">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:M89">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-1/codeforces-phase-1-3/codeforces-phase-1-3.xlsx
+++ b/level-1/codeforces-phase-1-3/codeforces-phase-1-3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE045445-A3E1-4735-BD4E-0B72BA453E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158F7BA-3C69-4486-80A4-7561DAE06498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 1.3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -118,9 +118,6 @@
     <t>https://codeforces.com/problemset/problem/998/A</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/789/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/90/A</t>
   </si>
   <si>
@@ -376,40 +373,58 @@
     <t>https://codeforces.com/problemset/problem/257/A</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/300/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/349/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/433/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/456/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/471/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/495/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/508/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/558/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/570/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/596/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/602/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/767/A</t>
+    <t>https://codeforces.com/problemset/problem/152/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/439/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/586/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/839/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/834/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/814/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/810/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/11/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/129/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/872/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/892/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/914/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1004/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/441/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/230/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/272/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/450/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/604/A</t>
   </si>
 </sst>
 </file>
@@ -589,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,6 +659,12 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1303,55 +1324,55 @@
     <row r="3" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="6">
-        <f>SUM(B4:B801)</f>
+        <f>SUM(B4:B819)</f>
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(C4:C801)</f>
+        <f>SUM(C4:C819)</f>
         <v>19</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(D4:D801)</f>
+        <f>SUM(D4:D819)</f>
         <v>26</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(E4:E801)</f>
+        <f>SUM(E4:E819)</f>
         <v>30</v>
       </c>
       <c r="F3" s="6">
-        <f>SUM(F4:F801)</f>
-        <v>35</v>
+        <f>SUM(F4:F819)</f>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G176)</f>
+        <f>AVERAGE(G4:G194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4:I194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J4:J194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K4:K194)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L4:L194)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>COUNTA(M4:M801)</f>
-        <v>115</v>
+        <f>COUNTA(M4:M819)</f>
+        <v>120</v>
       </c>
       <c r="N3" s="6">
-        <f>COUNTA(N4:N801)</f>
+        <f>COUNTA(N4:N819)</f>
         <v>0</v>
       </c>
     </row>
@@ -1376,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -1401,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -1451,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -1472,7 +1493,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="8">
-        <f t="shared" ref="L8:L71" si="1">SUM(G8:K8)</f>
+        <f>SUM(G8:K8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
@@ -1497,11 +1518,11 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G9:K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="11"/>
     </row>
@@ -1522,11 +1543,11 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G10:K10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -1547,11 +1568,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G11:K11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="11"/>
     </row>
@@ -1572,11 +1593,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G12:K12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -1597,7 +1618,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G13:K13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
@@ -1622,7 +1643,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G14:K14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
@@ -1647,7 +1668,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G15:K15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
@@ -1672,11 +1693,11 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G16:K16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" s="13"/>
     </row>
@@ -1697,11 +1718,11 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G17:K17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="13"/>
     </row>
@@ -1722,11 +1743,11 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G18:K18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" s="13"/>
     </row>
@@ -1747,11 +1768,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G19:K19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -1772,11 +1793,11 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G20:K20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -1797,11 +1818,11 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G21:K21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N21" s="11"/>
     </row>
@@ -1822,11 +1843,11 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G22:K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="11"/>
     </row>
@@ -1847,11 +1868,11 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G23:K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="13"/>
     </row>
@@ -1872,7 +1893,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G24:K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
@@ -1897,11 +1918,11 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G25:K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N25" s="13"/>
     </row>
@@ -1922,11 +1943,11 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G26:K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N26" s="13"/>
     </row>
@@ -1947,11 +1968,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G27:K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -1972,11 +1993,11 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G28:K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N28" s="13"/>
     </row>
@@ -1997,11 +2018,11 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G29:K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N29" s="13"/>
     </row>
@@ -2022,11 +2043,11 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G30:K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30" s="11"/>
     </row>
@@ -2047,11 +2068,11 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G31:K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N31" s="13"/>
     </row>
@@ -2072,11 +2093,11 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G32:K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -2097,11 +2118,11 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G33:K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="13"/>
     </row>
@@ -2122,11 +2143,11 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G34:K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="13"/>
     </row>
@@ -2147,11 +2168,11 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="13"/>
     </row>
@@ -2172,11 +2193,11 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G36:K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N36" s="13"/>
     </row>
@@ -2197,11 +2218,11 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G37:K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N37" s="13"/>
     </row>
@@ -2222,11 +2243,11 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G38:K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N38" s="13"/>
     </row>
@@ -2247,7 +2268,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G39:K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
@@ -2272,7 +2293,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G40:K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
@@ -2297,11 +2318,11 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G41:K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N41" s="13"/>
     </row>
@@ -2322,11 +2343,11 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G42:K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N42" s="13"/>
     </row>
@@ -2347,11 +2368,11 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N43" s="13"/>
     </row>
@@ -2372,11 +2393,11 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G44:K44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N44" s="13"/>
     </row>
@@ -2397,11 +2418,11 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G45:K45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N45" s="13"/>
     </row>
@@ -2422,11 +2443,11 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G46:K46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2447,11 +2468,11 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G47:K47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N47" s="13"/>
     </row>
@@ -2472,11 +2493,11 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G48:K48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N48" s="13"/>
     </row>
@@ -2497,11 +2518,11 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G49:K49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N49" s="13"/>
     </row>
@@ -2522,7 +2543,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G50:K50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
@@ -2547,7 +2568,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G51:K51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
@@ -2572,7 +2593,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G52:K52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
@@ -2597,11 +2618,11 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G53:K53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N53" s="13"/>
     </row>
@@ -2622,11 +2643,11 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G54:K54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N54" s="13"/>
     </row>
@@ -2647,11 +2668,11 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G55:K55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N55" s="13"/>
     </row>
@@ -2672,11 +2693,11 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G56:K56)</f>
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N56" s="13"/>
     </row>
@@ -2697,11 +2718,11 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G57:K57)</f>
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N57" s="13"/>
     </row>
@@ -2722,11 +2743,11 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G58:K58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N58" s="13"/>
     </row>
@@ -2747,11 +2768,11 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G59:K59)</f>
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N59" s="13"/>
     </row>
@@ -2772,11 +2793,11 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G60:K60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N60" s="11"/>
     </row>
@@ -2797,11 +2818,11 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G61:K61)</f>
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N61" s="13"/>
     </row>
@@ -2822,11 +2843,11 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G62:K62)</f>
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N62" s="13"/>
     </row>
@@ -2847,11 +2868,11 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G63:K63)</f>
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N63" s="13"/>
     </row>
@@ -2872,11 +2893,11 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G64:K64)</f>
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N64" s="13"/>
     </row>
@@ -2897,11 +2918,11 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G65:K65)</f>
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N65" s="13"/>
     </row>
@@ -2922,7 +2943,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G66:K66)</f>
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
@@ -2947,7 +2968,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G67:K67)</f>
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
@@ -2972,7 +2993,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G68:K68)</f>
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
@@ -2997,11 +3018,11 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G69:K69)</f>
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N69" s="11"/>
     </row>
@@ -3022,11 +3043,11 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G70:K70)</f>
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N70" s="13"/>
     </row>
@@ -3047,11 +3068,11 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G71:K71)</f>
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N71" s="13"/>
     </row>
@@ -3072,11 +3093,11 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L118" si="2">SUM(G72:K72)</f>
+        <f>SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N72" s="13"/>
     </row>
@@ -3097,11 +3118,11 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G73:K73)</f>
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N73" s="11"/>
     </row>
@@ -3122,11 +3143,11 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G74:K74)</f>
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N74" s="11"/>
     </row>
@@ -3147,11 +3168,11 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G75:K75)</f>
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N75" s="13"/>
     </row>
@@ -3172,11 +3193,11 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G76:K76)</f>
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N76" s="13"/>
     </row>
@@ -3197,11 +3218,11 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G77:K77)</f>
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N77" s="13"/>
     </row>
@@ -3222,11 +3243,11 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G78:K78)</f>
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N78" s="11"/>
     </row>
@@ -3247,11 +3268,11 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G79:K79)</f>
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N79" s="11"/>
     </row>
@@ -3272,11 +3293,11 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G80:K80)</f>
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N80" s="13"/>
     </row>
@@ -3297,11 +3318,11 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G81:K81)</f>
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N81" s="13"/>
     </row>
@@ -3322,7 +3343,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G82:K82)</f>
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
@@ -3347,7 +3368,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G83:K83)</f>
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
@@ -3356,14 +3377,14 @@
       <c r="N83" s="13"/>
     </row>
     <row r="84" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>112</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7">
+      <c r="A84" s="12">
+        <v>108</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12">
         <v>1</v>
       </c>
       <c r="G84" s="12"/>
@@ -3371,23 +3392,19 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="8">
-        <f t="shared" si="2"/>
+      <c r="L84" s="21">
+        <f>SUM(G84:K84)</f>
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>204</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="N84" s="22"/>
+    </row>
+    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>251</v>
+      </c>
       <c r="F85" s="12">
         <v>1</v>
       </c>
@@ -3396,23 +3413,18 @@
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="8">
-        <f t="shared" si="2"/>
+      <c r="L85" s="21">
+        <f>SUM(G85:K85)</f>
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>209</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>325</v>
+      </c>
       <c r="F86" s="12">
         <v>1</v>
       </c>
@@ -3421,23 +3433,18 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="8">
-        <f t="shared" si="2"/>
+      <c r="L86" s="21">
+        <f>SUM(G86:K86)</f>
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>215</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>428</v>
+      </c>
       <c r="F87" s="12">
         <v>1</v>
       </c>
@@ -3446,23 +3453,18 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
-      <c r="L87" s="8">
-        <f t="shared" si="2"/>
+      <c r="L87" s="21">
+        <f>SUM(G87:K87)</f>
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>226</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>426</v>
+      </c>
       <c r="F88" s="12">
         <v>1</v>
       </c>
@@ -3471,23 +3473,18 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="8">
-        <f t="shared" si="2"/>
+      <c r="L88" s="21">
+        <f>SUM(G88:K88)</f>
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>228</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>418</v>
+      </c>
       <c r="F89" s="12">
         <v>1</v>
       </c>
@@ -3496,23 +3493,18 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="8">
-        <f t="shared" si="2"/>
+      <c r="L89" s="21">
+        <f>SUM(G89:K89)</f>
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N89" s="13"/>
-    </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>249</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <v>415</v>
+      </c>
       <c r="F90" s="12">
         <v>1</v>
       </c>
@@ -3521,23 +3513,18 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="8">
-        <f t="shared" si="2"/>
+      <c r="L90" s="21">
+        <f>SUM(G90:K90)</f>
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N90" s="13"/>
-    </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>287</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <v>11</v>
+      </c>
       <c r="F91" s="12">
         <v>1</v>
       </c>
@@ -3546,23 +3533,18 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="8">
-        <f t="shared" si="2"/>
+      <c r="L91" s="21">
+        <f>SUM(G91:K91)</f>
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>313</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>94</v>
+      </c>
       <c r="F92" s="12">
         <v>1</v>
       </c>
@@ -3571,73 +3553,58 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="8">
-        <f t="shared" si="2"/>
+      <c r="L92" s="21">
+        <f>SUM(G92:K92)</f>
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N92" s="13"/>
-    </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>207</v>
-      </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <v>440</v>
+      </c>
       <c r="F93" s="12">
         <v>1</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="8">
-        <f t="shared" si="2"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="21">
+        <f>SUM(G93:K93)</f>
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>218</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <v>446</v>
+      </c>
       <c r="F94" s="12">
         <v>1</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="8">
-        <f t="shared" si="2"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="21">
+        <f>SUM(G94:K94)</f>
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>435</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>458</v>
+      </c>
       <c r="F95" s="12">
         <v>1</v>
       </c>
@@ -3646,48 +3613,38 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="8">
-        <f t="shared" si="2"/>
+      <c r="L95" s="21">
+        <f>SUM(G95:K95)</f>
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N95" s="13"/>
-    </row>
-    <row r="96" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
-        <v>431</v>
-      </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <v>495</v>
+      </c>
       <c r="F96" s="12">
         <v>1</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="8">
-        <f t="shared" si="2"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="21">
+        <f>SUM(G96:K96)</f>
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N96" s="13"/>
-    </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>402</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <v>252</v>
+      </c>
       <c r="F97" s="12">
         <v>1</v>
       </c>
@@ -3696,23 +3653,18 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="8">
-        <f t="shared" si="2"/>
+      <c r="L97" s="21">
+        <f>SUM(G97:K97)</f>
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="N97" s="13"/>
-    </row>
-    <row r="98" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>37</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <v>142</v>
+      </c>
       <c r="F98" s="12">
         <v>1</v>
       </c>
@@ -3721,23 +3673,18 @@
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-      <c r="L98" s="8">
-        <f t="shared" si="2"/>
+      <c r="L98" s="21">
+        <f>SUM(G98:K98)</f>
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="N98" s="13"/>
-    </row>
-    <row r="99" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>493</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>167</v>
+      </c>
       <c r="F99" s="12">
         <v>1</v>
       </c>
@@ -3746,23 +3693,18 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
-      <c r="L99" s="8">
-        <f t="shared" si="2"/>
+      <c r="L99" s="21">
+        <f>SUM(G99:K99)</f>
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
-        <v>134</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>257</v>
+      </c>
       <c r="F100" s="12">
         <v>1</v>
       </c>
@@ -3771,68 +3713,62 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
-      <c r="L100" s="8">
-        <f t="shared" si="2"/>
+      <c r="L100" s="21">
+        <f>SUM(G100:K100)</f>
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>334</v>
+      </c>
+      <c r="F101" s="12">
+        <v>1</v>
+      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="21">
+        <f>SUM(G101:K101)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
         <v>112</v>
       </c>
-      <c r="N100" s="13"/>
-    </row>
-    <row r="101" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>179</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12">
-        <v>1</v>
-      </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N101" s="13"/>
-    </row>
-    <row r="102" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>373</v>
-      </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12">
-        <v>1</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
       <c r="L102" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G102:K102)</f>
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="N102" s="13"/>
-    </row>
-    <row r="103" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3847,17 +3783,17 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G103:K103)</f>
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="N103" s="13"/>
     </row>
-    <row r="104" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3872,17 +3808,17 @@
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G104:K104)</f>
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="N104" s="13"/>
     </row>
-    <row r="105" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -3897,18 +3833,22 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G105:K105)</f>
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="N105" s="13"/>
     </row>
-    <row r="106" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
-        <v>181</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="12">
         <v>1</v>
       </c>
@@ -3918,37 +3858,47 @@
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G106:K106)</f>
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>202</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="12">
         <v>1</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
       <c r="L107" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G107:K107)</f>
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="12">
         <v>1</v>
       </c>
@@ -3958,17 +3908,22 @@
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G108:K108)</f>
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
-        <v>260</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="12">
         <v>1</v>
       </c>
@@ -3978,17 +3933,22 @@
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G109:K109)</f>
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
-        <v>269</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="12">
         <v>1</v>
       </c>
@@ -3998,57 +3958,72 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G110:K110)</f>
         <v>0</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
-        <v>282</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="12">
         <v>1</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G111:K111)</f>
         <v>0</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
-        <v>288</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="12">
         <v>1</v>
       </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G112:K112)</f>
         <v>0</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
-        <v>312</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="12">
         <v>1</v>
       </c>
@@ -4058,37 +4033,47 @@
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G113:K113)</f>
         <v>0</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
-        <v>316</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="12">
         <v>1</v>
       </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G114:K114)</f>
         <v>0</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
-        <v>331</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="12">
         <v>1</v>
       </c>
@@ -4098,17 +4083,22 @@
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G115:K115)</f>
         <v>0</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
-        <v>333</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="12">
         <v>1</v>
       </c>
@@ -4118,37 +4108,47 @@
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G116:K116)</f>
         <v>0</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
-        <v>398</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="12">
         <v>1</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
       <c r="L117" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G117:K117)</f>
         <v>0</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
-        <v>407</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="12">
         <v>1</v>
       </c>
@@ -4158,163 +4158,145 @@
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
       <c r="L118" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G118:K118)</f>
         <v>0</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>179</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="8">
+        <f>SUM(G119:K119)</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N119" s="13"/>
+    </row>
+    <row r="120" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>373</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="8">
+        <f>SUM(G120:K120)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N120" s="13"/>
+    </row>
+    <row r="121" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>113</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12">
+        <v>1</v>
+      </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L121" s="8">
+        <f>SUM(G121:K121)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N121" s="13"/>
+    </row>
+    <row r="122" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>153</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12">
+        <v>1</v>
+      </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L122" s="8">
+        <f>SUM(G122:K122)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N122" s="13"/>
+    </row>
+    <row r="123" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>159</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12">
+        <v>1</v>
+      </c>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="8"/>
+      <c r="L123" s="8">
+        <f>SUM(G123:K123)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N123" s="13"/>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
       <c r="L137" s="8"/>
     </row>
     <row r="138" spans="7:12" x14ac:dyDescent="0.3">
@@ -4334,11 +4316,11 @@
       <c r="L139" s="8"/>
     </row>
     <row r="140" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
       <c r="L140" s="8"/>
     </row>
     <row r="141" spans="7:12" x14ac:dyDescent="0.3">
@@ -4366,19 +4348,19 @@
       <c r="L143" s="8"/>
     </row>
     <row r="144" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
       <c r="L144" s="8"/>
     </row>
     <row r="145" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
       <c r="L145" s="8"/>
     </row>
     <row r="146" spans="7:12" x14ac:dyDescent="0.3">
@@ -4414,11 +4396,11 @@
       <c r="L149" s="8"/>
     </row>
     <row r="150" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
       <c r="L150" s="8"/>
     </row>
     <row r="151" spans="7:12" x14ac:dyDescent="0.3">
@@ -4478,11 +4460,11 @@
       <c r="L157" s="8"/>
     </row>
     <row r="158" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="7:12" x14ac:dyDescent="0.3">
@@ -4510,19 +4492,19 @@
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="7:12" x14ac:dyDescent="0.3">
@@ -4550,19 +4532,19 @@
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="7:12" x14ac:dyDescent="0.3">
@@ -4598,11 +4580,11 @@
       <c r="L172" s="8"/>
     </row>
     <row r="173" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
       <c r="L173" s="8"/>
     </row>
     <row r="174" spans="7:12" x14ac:dyDescent="0.3">
@@ -4629,13 +4611,157 @@
       <c r="K176" s="12"/>
       <c r="L176" s="8"/>
     </row>
+    <row r="177" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="8"/>
+    </row>
+    <row r="178" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="8"/>
+    </row>
+    <row r="179" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="8"/>
+    </row>
+    <row r="180" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="8"/>
+    </row>
+    <row r="181" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="8"/>
+    </row>
+    <row r="182" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="8"/>
+    </row>
+    <row r="183" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="8"/>
+    </row>
+    <row r="184" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="8"/>
+    </row>
+    <row r="185" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="8"/>
+    </row>
+    <row r="186" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="8"/>
+    </row>
+    <row r="187" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="8"/>
+    </row>
+    <row r="188" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="8"/>
+    </row>
+    <row r="189" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="8"/>
+    </row>
+    <row r="190" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="8"/>
+    </row>
+    <row r="191" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="8"/>
+    </row>
+    <row r="192" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="8"/>
+    </row>
+    <row r="193" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="8"/>
+    </row>
+    <row r="194" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I303">
-    <sortCondition descending="1" ref="B4:B303"/>
-    <sortCondition descending="1" ref="C4:C303"/>
-    <sortCondition descending="1" ref="D4:D303"/>
-    <sortCondition descending="1" ref="E4:E303"/>
-    <sortCondition descending="1" ref="F4:F303"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I321">
+    <sortCondition descending="1" ref="B4:B321"/>
+    <sortCondition descending="1" ref="C4:C321"/>
+    <sortCondition descending="1" ref="D4:D321"/>
+    <sortCondition descending="1" ref="E4:E321"/>
+    <sortCondition descending="1" ref="F4:F321"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="M1:M2"/>
@@ -4698,7 +4824,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A84 A119:A1048576">
+  <conditionalFormatting sqref="A82:A83 A137:A1048576 A102">
     <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4738,128 +4864,118 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
+  <conditionalFormatting sqref="A103">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A104">
     <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A105">
     <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A89">
+  <conditionalFormatting sqref="A106:A107">
     <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A108">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A109">
     <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A110">
     <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A97">
+  <conditionalFormatting sqref="A111:A115">
     <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A119">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="A120">
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A103">
+  <conditionalFormatting sqref="A120:A121">
     <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M89">
+  <conditionalFormatting sqref="M102:M107">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M89">
+  <conditionalFormatting sqref="M102:M107">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M90:M101">
+  <conditionalFormatting sqref="M108:M119">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M90:M101">
+  <conditionalFormatting sqref="M108:M119">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M102:M104">
+  <conditionalFormatting sqref="M120:M122">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M102:M104">
+  <conditionalFormatting sqref="M120:M122">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M105">
+  <conditionalFormatting sqref="M123">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M105">
+  <conditionalFormatting sqref="M123">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A118">
+  <conditionalFormatting sqref="A122:A123">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M118">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M118">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
